--- a/APM files/122325576/Exports Results/122325576 EXPORT Compensation Cloud Export_result.xlsx
+++ b/APM files/122325576/Exports Results/122325576 EXPORT Compensation Cloud Export_result.xlsx
@@ -275,7 +275,7 @@
       <c r="P2"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -441,7 +441,7 @@
       <c r="P4"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -607,7 +607,7 @@
       <c r="P6"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -773,7 +773,7 @@
       <c r="P8"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -939,7 +939,7 @@
       <c r="P10"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1105,7 +1105,7 @@
       <c r="P12"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1437,7 +1437,7 @@
       <c r="P16"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1603,7 +1603,7 @@
       <c r="P18"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1769,7 +1769,7 @@
       <c r="P20"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1854,7 +1854,7 @@
       <c r="P21"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1939,7 +1939,7 @@
       <c r="P22"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2109,7 +2109,7 @@
       <c r="P24"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2194,7 +2194,7 @@
       <c r="P25"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2364,7 +2364,7 @@
       <c r="P27"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>391097789</t>
+          <t>386724879</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>391097787</t>
+          <t>386724841</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2682,7 +2682,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>81461062</t>
+          <t>88986725</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>610580459</t>
+          <t>610580474</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>386724879</t>
+          <t>388296832</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2732,19 +2732,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Room, 1 Double Bed GREEN</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>317602248</t>
+          <t>321231999</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>81461062</t>
+          <t>88986725</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>610580459</t>
+          <t>610580474</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>386724841</t>
+          <t>388296488</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2794,12 +2794,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Room, 1 Double Bed GREEN</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>317602248</t>
+          <t>321231999</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>391098500</t>
+          <t>388296829</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREEN</t>
+          <t>Basic Room, 1 Double Bed GREY</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>321231999</t>
+          <t>321231958</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>391098481</t>
+          <t>388296379</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREEN</t>
+          <t>Basic Room, 1 Double Bed GREY</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>321231999</t>
+          <t>321231958</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>388296832</t>
+          <t>388296831</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREEN</t>
+          <t>Basic Room, 1 Double Bed VIOLET</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>321231999</t>
+          <t>321231950</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>388296488</t>
+          <t>388296365</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREEN</t>
+          <t>Basic Room, 1 Double Bed VIOLET</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>321231999</t>
+          <t>321231950</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>391098551</t>
+          <t>388296830</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREY</t>
+          <t>Family Room ROSE</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>321231958</t>
+          <t>321231942</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>391098528</t>
+          <t>388296354</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREY</t>
+          <t>Family Room ROSE</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>321231958</t>
+          <t>321231942</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>388296829</t>
+          <t>388296833</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREY</t>
+          <t>Basic Room, 1 Double Bed DUST</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>321231958</t>
+          <t>321231859</t>
         </is>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>388296379</t>
+          <t>388296205</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3290,19 +3290,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed GREY</t>
+          <t>Basic Room, 1 Double Bed DUST</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>321231958</t>
+          <t>321231859</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>89807535</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3312,17 +3312,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580448</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>391098595</t>
+          <t>388737015</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3342,7 +3342,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3352,19 +3352,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed VIOLET</t>
+          <t>City Studio</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>321231950</t>
+          <t>321394692</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>89807535</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3374,17 +3374,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580448</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>391098577</t>
+          <t>388736948</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3414,19 +3414,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed VIOLET</t>
+          <t>City Studio</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>321231950</t>
+          <t>321394692</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>89853214</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580458</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>388296831</t>
+          <t>388760359</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3476,19 +3476,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed VIOLET</t>
+          <t>City Apartment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>321231950</t>
+          <t>321406561</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>89853214</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580458</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>388296365</t>
+          <t>388760067</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3538,19 +3538,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed VIOLET</t>
+          <t>City Apartment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>321231950</t>
+          <t>321406561</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>90163497</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580456</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>391098649</t>
+          <t>388926146</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3600,19 +3600,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Family Room ROSE</t>
+          <t>City Apartment</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>321231942</t>
+          <t>321481302</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>90163497</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580456</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>391098626</t>
+          <t>388926114</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3662,19 +3662,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Family Room ROSE</t>
+          <t>City Apartment</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>321231942</t>
+          <t>321481302</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>91060132</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580462</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>388296830</t>
+          <t>389218702</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3724,19 +3724,19 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Family Room ROSE</t>
+          <t>City Studio</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>321231942</t>
+          <t>321651861</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>91060132</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580462</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>388296354</t>
+          <t>389218587</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3786,19 +3786,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Family Room ROSE</t>
+          <t>City Studio</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>321231942</t>
+          <t>321651861</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>91723065</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580454</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>391098440</t>
+          <t>389553063</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3848,19 +3848,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed DUST</t>
+          <t>Family Studio</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>321231859</t>
+          <t>321799597</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>91723065</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580454</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>391098406</t>
+          <t>389553036</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3910,19 +3910,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed DUST</t>
+          <t>Family Studio</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>321231859</t>
+          <t>321799597</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>91723065</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580454</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>388296833</t>
+          <t>389553049</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3972,19 +3972,19 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed DUST</t>
+          <t>Standard Apartment, 1 Bedroom</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>321231859</t>
+          <t>321799591</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>88986725</t>
+          <t>91723065</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>610580474</t>
+          <t>610580454</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>388296205</t>
+          <t>389553024</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>PerDayPricing</t>
+          <t>OccupancyBasedPricing</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Basic Room, 1 Double Bed DUST</t>
+          <t>Standard Apartment, 1 Bedroom</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>321231859</t>
+          <t>321799591</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>89807535</t>
+          <t>91723065</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>610580448</t>
+          <t>610580454</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>391097625</t>
+          <t>389553067</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4096,19 +4096,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Romantic Studio</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>321394692</t>
+          <t>321799586</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>89807535</t>
+          <t>91723065</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>610580448</t>
+          <t>610580454</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>391097622</t>
+          <t>389553015</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4158,19 +4158,19 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Romantic Studio</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>321394692</t>
+          <t>321799586</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>89807535</t>
+          <t>91790207</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4180,17 +4180,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>610580448</t>
+          <t>610580471</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>388737015</t>
+          <t>389584342</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -4220,19 +4220,19 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Traditional Studio</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>321394692</t>
+          <t>321816821</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>89807535</t>
+          <t>91790207</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4242,17 +4242,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>610580448</t>
+          <t>610580471</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>388736948</t>
+          <t>389584292</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -4282,19 +4282,19 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Traditional Studio</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>321394692</t>
+          <t>321816821</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>89853214</t>
+          <t>91987821</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>610580458</t>
+          <t>610580467</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>391097779</t>
+          <t>389690273</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4344,19 +4344,19 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>City Studio</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>321406561</t>
+          <t>321860685</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>89853214</t>
+          <t>91987821</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>610580458</t>
+          <t>610580467</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>391097770</t>
+          <t>389690254</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4406,39 +4406,39 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>City Studio</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>321406561</t>
+          <t>321860685</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>89853214</t>
+          <t>96659730</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>610580458</t>
+          <t>610634484</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>388760359</t>
+          <t>391790030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4468,39 +4468,39 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>321406561</t>
+          <t>322781996</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>89853214</t>
+          <t>96659730</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>610580458</t>
+          <t>610634484</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>388760067</t>
+          <t>391790025</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4530,39 +4530,39 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>321406561</t>
+          <t>322781996</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>90163497</t>
+          <t>96658659</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>610580456</t>
+          <t>610634472</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>391097756</t>
+          <t>391788755</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4592,39 +4592,39 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>Basic Apartment, 1 Bedroom</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>321481302</t>
+          <t>322781854</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>90163497</t>
+          <t>96658659</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>610580456</t>
+          <t>610634472</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>391097742</t>
+          <t>391788751</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4654,39 +4654,39 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>Basic Apartment, 1 Bedroom</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>321481302</t>
+          <t>322781854</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>90163497</t>
+          <t>96661212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>610580456</t>
+          <t>610634516</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>388926146</t>
+          <t>391790696</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4716,39 +4716,39 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>321481302</t>
+          <t>322782290</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>90163497</t>
+          <t>96661212</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>610580456</t>
+          <t>610634516</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>388926114</t>
+          <t>391790694</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4778,39 +4778,39 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>City Apartment</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>321481302</t>
+          <t>322782290</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>91060132</t>
+          <t>96662493</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>610580462</t>
+          <t>610634568</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>389218780</t>
+          <t>391791080</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4840,29 +4840,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>321651861</t>
+          <t>322782558</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>91060132</t>
+          <t>96662493</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>610580462</t>
+          <t>610634568</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>389218702</t>
+          <t>391791078</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4892,7 +4892,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -4902,39 +4902,39 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>321651861</t>
+          <t>322782558</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>91060132</t>
+          <t>96662009</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>610580462</t>
+          <t>610634552</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>389218589</t>
+          <t>391790882</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4964,39 +4964,39 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>321651861</t>
+          <t>322782449</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>91060132</t>
+          <t>96662009</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>610580462</t>
+          <t>610634552</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>389218587</t>
+          <t>391790879</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5026,39 +5026,39 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>321651861</t>
+          <t>322782449</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>91723065</t>
+          <t>96674360</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>610580454</t>
+          <t>610635256</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>389553063</t>
+          <t>391796631</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -5088,39 +5088,39 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Family Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>321799597</t>
+          <t>322785925</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>91723065</t>
+          <t>96674360</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>610580454</t>
+          <t>610635256</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>389553036</t>
+          <t>391796629</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5150,39 +5150,39 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Family Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>321799597</t>
+          <t>322785925</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>91723065</t>
+          <t>99464099</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>610580454</t>
+          <t>610683045</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>389553049</t>
+          <t>392348925</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5212,39 +5212,39 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Standard Apartment, 1 Bedroom</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>321799591</t>
+          <t>323608063</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>91723065</t>
+          <t>99464099</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>610580454</t>
+          <t>610683045</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>389553024</t>
+          <t>392348921</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5274,39 +5274,39 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Standard Apartment, 1 Bedroom</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>321799591</t>
+          <t>323608063</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>91723065</t>
+          <t>99464099</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>610580454</t>
+          <t>610683045</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Non-refundable</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>389553067</t>
+          <t>392348903</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -5336,39 +5336,39 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Romantic Studio</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>321799586</t>
+          <t>323608063</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>91723065</t>
+          <t>99464099</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>610580454</t>
+          <t>610683045</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>389553015</t>
+          <t>392348899</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -5398,39 +5398,39 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Romantic Studio</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>321799586</t>
+          <t>323608063</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>91790207</t>
+          <t>99464099</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>610580471</t>
+          <t>610683045</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Standard</t>
+          <t>Standard non-refundable</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>391097847</t>
+          <t>392331309</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -5460,39 +5460,39 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Traditional Studio</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>321816821</t>
+          <t>323608063</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>91790207</t>
+          <t>99464099</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>610580471</t>
+          <t>610683045</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>391097846</t>
+          <t>392331307</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5522,29 +5522,29 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Traditional Studio</t>
+          <t>Comfort Apartment</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>321816821</t>
+          <t>323608063</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>91790207</t>
+          <t>99603905</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>610580471</t>
+          <t>610687361</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>389584342</t>
+          <t>392418641</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -5584,29 +5584,29 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Traditional Studio</t>
+          <t>Comfort Studio</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>321816821</t>
+          <t>323638023</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>91790207</t>
+          <t>100720929</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>610580471</t>
+          <t>610732444</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>389584292</t>
+          <t>393171449</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>OccupancyBasedPricing</t>
+          <t>PerDayPricing</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5646,29 +5646,29 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Traditional Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>321816821</t>
+          <t>323866480</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>91987821</t>
+          <t>100720929</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>610580467</t>
+          <t>610732444</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>391097818</t>
+          <t>393171430</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5708,29 +5708,29 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>321860685</t>
+          <t>323866480</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>91987821</t>
+          <t>100720929</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>610580467</t>
+          <t>610732444</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>391097816</t>
+          <t>393171422</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Package</t>
+          <t>Standalone</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5770,29 +5770,29 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>321860685</t>
+          <t>323866480</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>91987821</t>
+          <t>100720929</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>610580467</t>
+          <t>610732444</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>389690273</t>
+          <t>393171413</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5832,39 +5832,39 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>321860685</t>
+          <t>323866480</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>91987821</t>
+          <t>100720929</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2023_EC_15%</t>
+          <t>Merchant</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>610580467</t>
+          <t>610732444</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Non-refundable</t>
+          <t>NOT REF 3 PAX</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>389690254</t>
+          <t>393023789</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5894,19 +5894,19 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>City Studio</t>
+          <t>Basic Apartment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>321860685</t>
+          <t>323866480</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>96659730</t>
+          <t>100720929</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5916,17 +5916,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>610634484</t>
+          <t>610732444</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Standard non-refundable</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>391790030</t>
+          <t>393023787</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5960,1866 +5960,6 @@
         </is>
       </c>
       <c r="L56" t="inlineStr">
-        <is>
-          <t>322781996</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>96659730</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>610634484</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>391790028</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Package</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>322781996</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>96659730</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>610634484</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>391790025</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>322781996</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>96658659</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>610634472</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Standard non-refundable</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>391788755</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Basic Apartment, 1 Bedroom</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>322781854</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>96658659</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>610634472</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>391788753</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Package</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Basic Apartment, 1 Bedroom</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>322781854</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>96658659</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>610634472</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>391788751</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Basic Apartment, 1 Bedroom</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>322781854</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>96661212</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>610634516</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Standard non-refundable</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>391790696</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>322782290</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>96661212</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>610634516</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>391790695</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Package</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>322782290</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>96661212</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>610634516</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>391790694</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>322782290</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>96662493</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>610634568</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Standard non-refundable</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>391791080</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>322782558</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>96662493</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>610634568</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>391791078</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>322782558</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>96662009</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>610634552</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Standard non-refundable</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>391790882</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>322782449</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>96662009</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>610634552</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>391790881</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Package</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>322782449</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>96662009</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>610634552</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>391790879</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>322782449</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>96674360</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>610635256</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Standard non-refundable</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>391796631</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>322785925</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>96674360</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>610635256</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>391796630</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Package</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>322785925</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>96674360</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>610635256</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>391796629</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>322785925</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>99464099</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>610683045</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>392348925</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Comfort Apartment</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>323608063</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>99464099</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>610683045</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>392348921</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Comfort Apartment</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>323608063</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>99464099</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>610683045</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>392348903</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Comfort Apartment</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>323608063</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>99464099</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>610683045</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>392348899</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Comfort Apartment</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>323608063</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>99464099</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>610683045</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Standard non-refundable</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>392331309</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Comfort Apartment</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>323608063</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>99464099</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>610683045</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>392331307</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Comfort Apartment</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>323608063</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>99603905</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>610687361</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>392418643</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Package</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Comfort Studio</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>323638023</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>99603905</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>610687361</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>392418641</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Comfort Studio</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>323638023</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>100720929</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>610732444</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>393171449</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>323866480</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>100720929</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>610732444</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>393171430</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>323866480</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>100720929</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>610732444</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Non-refundable</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>393171422</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>323866480</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>100720929</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>610732444</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>393171413</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>323866480</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>100720929</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>610732444</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>NOT REF 3 PAX</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>393023789</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>323866480</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>100720929</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>610732444</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Standard</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>393023787</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Standalone</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Merchant</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>PerDayPricing</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Basic Apartment</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
         <is>
           <t>323866480</t>
         </is>
